--- a/inst/extdata/examples/xlsx/many-bars.xlsx
+++ b/inst/extdata/examples/xlsx/many-bars.xlsx
@@ -2747,7 +2747,7 @@
         <v>56.2263069807026</v>
       </c>
       <c r="C77" t="n">
-        <v>43.2188738520049</v>
+        <v>43.218873852005</v>
       </c>
       <c r="D77" t="n">
         <v>3.81184428337822</v>
@@ -3084,7 +3084,7 @@
         <v>0.163138654385799</v>
       </c>
       <c r="I88" t="n">
-        <v>5.67187023890671</v>
+        <v>5.6718702389067</v>
       </c>
     </row>
     <row r="89">
